--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO4\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\나는야탐쌤\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,36 +123,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>HTML+CSS 웹 개발</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HTML+CSS 웹 개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
----------------------
-화면 설계</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">자바스크립트 + 제이쿼리 실습 및 응용
 </t>
@@ -223,7 +193,52 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 기초탄탄, 4차산업 Front-end(프론트엔드) IT 소프트웨어 웹 개발 2회차 주별 상세일정</t>
+    <t>분석 / 설계 + 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 레이아웃 + 세부코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript 기본 / CSS 애니메이션, 
+CGV PJ </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / CSS 애니메이션, 
+VOGUE PJ / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">※ 휴일: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML+CSS 웹 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML+CSS 웹 개발</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTML+CSS 웹 개발
+---------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>화면 설계</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -247,45 +262,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-----------------------
+---------------------
 화면 구현</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>화면 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 레이아웃 + 세부코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript 기본 / CSS 애니메이션, 
-CGV PJ </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-VOGUE PJ / XD 프로토타이핑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">※ 휴일: </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>취업세미나
+7월20일(수)
 7,8교시</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>작품발표회
+8월10일(수)
 7,8교시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 기초탄탄, 4차산업 Front-end(프론트엔드) IT 소프트웨어 웹 개발 3회차 주별 상세일정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +293,7 @@
     <numFmt numFmtId="177" formatCode="&quot;총&quot;\ #\ &quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +374,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +408,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -548,6 +557,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,9 +645,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,15 +660,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,6 +675,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,6 +697,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +1063,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,49 +1083,49 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="B2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -1038,237 +1137,247 @@
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="37">
         <v>44735</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="37">
         <v>44736</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="39">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="17"/>
+      <c r="G5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>44739</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>44743</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="12" t="s">
+      <c r="G6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="19"/>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>44746</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>44750</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="19"/>
+      <c r="G7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="15">
+        <v>44746</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>44753</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>44757</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>43</v>
-      </c>
+      <c r="G8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15">
+        <v>44754</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>44760</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>44764</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="20"/>
+      <c r="H9" s="15">
+        <v>44762</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>44767</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>44771</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="12" t="s">
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="20"/>
+      <c r="J10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>44774</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>44778</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="19"/>
+      <c r="G11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="15">
+        <v>44775</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="29">
         <v>44781</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="29">
         <v>44783</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="31">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>44</v>
+      <c r="G12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="33">
+        <v>44783</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1280,30 +1389,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="B15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\나는야탐쌤\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO4\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +414,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -617,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +684,45 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,55 +744,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1090,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,39 +1110,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1136,61 +1163,61 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="44">
         <v>44735</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="44">
         <v>44736</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="46">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="42" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="29">
         <v>44739</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="29">
         <v>44743</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="31">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
@@ -1348,35 +1375,35 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="21">
         <v>44781</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="21">
         <v>44783</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="23">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="25">
         <v>44783</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1389,30 +1416,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -623,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +723,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,37 +774,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1099,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1110,39 +1119,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1163,92 +1172,92 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="36">
         <v>44735</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="36">
         <v>44736</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="38">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="49" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="50"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="36">
         <v>44739</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="36">
         <v>44743</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="38">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="30" t="s">
+      <c r="H6" s="52"/>
+      <c r="I6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="29">
         <v>44746</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="29">
         <v>44750</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="31">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="33">
         <v>44746</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
@@ -1416,30 +1425,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -119,10 +119,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>메인구현 : 상세구현하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">자바스크립트 + 제이쿼리 실습 및 응용
 </t>
@@ -149,19 +145,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 상세구현하기
-+서브페이지구현포트폴리오 
-JS코딩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>발표</t>
-  </si>
-  <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -194,10 +177,6 @@
   </si>
   <si>
     <t>분석 / 설계 + 레이아웃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인구현 : 레이아웃 + 세부코딩</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -281,6 +260,28 @@
   </si>
   <si>
     <t xml:space="preserve"> 기초탄탄, 4차산업 Front-end(프론트엔드) IT 소프트웨어 웹 개발 3회차 주별 상세일정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 레이아웃 + 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 상세코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 상세구현하기
++서브페이지구현포트폴리오 
+JS코딩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 서브구현하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인구현 : 테스트 및 발표</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,9 +727,6 @@
     <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +751,15 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,17 +781,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1099,7 +1103,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1119,39 +1123,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1172,123 +1176,123 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>44735</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>44736</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="42"/>
+      <c r="G5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>44739</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>44743</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="37" t="s">
+      <c r="G6" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="53"/>
+      <c r="J6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="35">
         <v>44746</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="35">
         <v>44750</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="37">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="G7" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="43">
         <v>44746</v>
       </c>
-      <c r="I7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="I7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="J7" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="29">
         <v>44753</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="29">
         <v>44757</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="31">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="33">
         <v>44754</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="17"/>
+      <c r="I8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
@@ -1314,13 +1318,13 @@
         <v>44762</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -1341,14 +1345,14 @@
         <v>5</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="11" t="s">
-        <v>20</v>
+      <c r="I10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1370,16 +1374,16 @@
         <v>5</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="15">
         <v>44775</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K11" s="16"/>
     </row>
@@ -1401,19 +1405,19 @@
         <v>3</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="25">
         <v>44783</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1425,30 +1429,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="B15" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -624,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +760,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,13 +790,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,39 +1126,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1251,7 @@
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="47" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="43">
@@ -1263,67 +1266,67 @@
       <c r="K7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="35">
         <v>44753</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="35">
         <v>44757</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="37">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="43">
         <v>44754</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="53"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="29">
         <v>44760</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="29">
         <v>44764</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="31">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="33">
         <v>44762</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="46" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1429,30 +1432,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -160,33 +160,17 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 기본,응용 / jQuery 기본, 
-VOGUE PJ / SVG 애니메이션</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> jQuery 응용,  Vue.js 적용
 파일럿 PJ, 포트폴리오 발표 및 검수</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> jQuery 응용, 
-VOGUE PJ / SVG 애니메이션
- Vue.js 기본, 파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>분석 / 설계 + 레이아웃</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Javascript 기본 / CSS 애니메이션, 
 CGV PJ </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 기본,응용 / CSS 애니메이션, 
-VOGUE PJ / XD 프로토타이핑</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -282,6 +266,20 @@
   </si>
   <si>
     <t>메인구현 : 테스트 및 발표</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / CSS 애니메이션</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 기본,응용 / jQuery 기본, 
+VOGUE PJ / XD 프로토타이핑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jQuery 응용, 
+VOGUE PJ / Vue.js 기본 / 파일럿 PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,9 +662,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,9 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +761,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,9 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1106,7 +1098,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1126,49 +1118,49 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="B2" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="19" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -1179,185 +1171,185 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>44735</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>44736</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="35">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40" t="s">
+      <c r="G5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>44739</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>44743</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="35">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="41"/>
+      <c r="I6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="44"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>44746</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>44750</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="35">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="G7" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="41">
         <v>44746</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="44"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>44753</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>44757</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="35">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="43">
+      <c r="G8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="41">
         <v>44754</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="55"/>
+      <c r="I8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="33">
         <v>44760</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="33">
         <v>44764</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="35">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="41">
         <v>44762</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>31</v>
+      <c r="I9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="27">
         <v>44767</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="27">
         <v>44771</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="29">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="17"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
@@ -1376,51 +1368,51 @@
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>44775</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="16"/>
+      <c r="I11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>44781</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>44783</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>44783</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>38</v>
+      <c r="I12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1432,30 +1424,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="B15" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -622,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,30 +650,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,12 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -783,6 +753,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1074,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1118,49 +1094,49 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -1171,247 +1147,247 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="25">
         <v>44735</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="25">
         <v>44736</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="27">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="38" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="25">
         <v>44739</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="25">
         <v>44743</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="27">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="25">
         <v>44746</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="25">
         <v>44750</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="27">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="33">
         <v>44746</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="25">
         <v>44753</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="25">
         <v>44757</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="27">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="33">
         <v>44754</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="46"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="25">
         <v>44760</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="25">
         <v>44764</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="27">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="33">
         <v>44762</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>44767</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>44771</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="30" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="19">
         <v>44774</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="19">
         <v>44778</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="21">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="23">
         <v>44775</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="11">
         <v>44781</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="11">
         <v>44783</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="13">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>44783</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1424,30 +1400,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/GITA-FED22-3회차_주단위상세일정.xlsx
@@ -278,8 +278,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> jQuery 응용, 
-VOGUE PJ / Vue.js 기본 / 파일럿 PJ</t>
+    <t xml:space="preserve"> jQuery 응용 / VOGUE PJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,48 +652,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,11 +712,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1074,7 +1049,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,39 +1069,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
@@ -1147,247 +1122,247 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="11">
         <v>44735</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="11">
         <v>44736</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="13">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="11">
         <v>44739</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="11">
         <v>44743</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="13">
         <f>DAYS360(C6,E6)+1</f>
         <v>5</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="26" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="11">
         <v>44746</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="11">
         <v>44750</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="13">
         <f>DAYS360(C7,E7)+1</f>
         <v>5</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="19">
         <v>44746</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="11">
         <v>44753</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="11">
         <v>44757</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="13">
         <f t="shared" ref="F8" si="0">DAYS360(C8,E8)+1</f>
         <v>5</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="19">
         <v>44754</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="11">
         <v>44760</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="11">
         <v>44764</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="13">
         <f>DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="19">
         <v>44762</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="11">
         <v>44767</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="11">
         <v>44771</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="13">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="36"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="11">
         <v>44774</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="11">
         <v>44778</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="13">
         <f>DAYS360(C11,E11)+1</f>
         <v>5</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="19">
         <v>44775</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="31">
         <v>44781</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="31">
         <v>44783</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="33">
         <f>DAYS360(C12,E12)+1</f>
         <v>3</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="35">
         <v>44783</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="37" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1400,30 +1375,30 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
